--- a/ABM_Run_Data/Subplots and Neighbours/INFO_Subplots.xlsx
+++ b/ABM_Run_Data/Subplots and Neighbours/INFO_Subplots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idethz-my.sharepoint.com/personal/opbrntbvg5_student_ethz_ch/Documents/Thesis/PM/Data_Prep_ABM/Subplots_Communities/1436 Buildings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iA\OneDrive - ETHZ\master_thesis\ABM_Run_Data\Subplots and Neighbours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{ABD23B4A-9231-4A69-9C95-C19662DF4556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{08A414A0-D120-4A00-84FE-EFE5F0BC1BAF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{ABD23B4A-9231-4A69-9C95-C19662DF4556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{53382229-9E4A-4667-AE2D-B493B7C10D4D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8250" activeTab="1" xr2:uid="{8F08B663-0F4F-46EA-9F95-A748C94A0184}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8250" xr2:uid="{8F08B663-0F4F-46EA-9F95-A748C94A0184}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7054,16 +7054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7390,7 +7390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CEFEF4-4A11-4CC3-ABCF-A68F20136CC8}">
   <dimension ref="A1:OQ33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16156,7 +16158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B379DBEF-C9E5-4AD7-BB3A-1FF1FB9451D8}">
   <dimension ref="A2:F408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
